--- a/biology/Zoologie/Carlia_rhomboidalis/Carlia_rhomboidalis.xlsx
+++ b/biology/Zoologie/Carlia_rhomboidalis/Carlia_rhomboidalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlia rhomboidalis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlia rhomboidalis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
